--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Itga6</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>207.880566885611</v>
+        <v>33.74028533333333</v>
       </c>
       <c r="H2">
-        <v>207.880566885611</v>
+        <v>101.220856</v>
       </c>
       <c r="I2">
-        <v>0.8300150450587032</v>
+        <v>0.1178820139940326</v>
       </c>
       <c r="J2">
-        <v>0.8300150450587032</v>
+        <v>0.1178820139940326</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>101.819279703334</v>
+        <v>136.6884486666667</v>
       </c>
       <c r="N2">
-        <v>101.819279703334</v>
+        <v>410.065346</v>
       </c>
       <c r="O2">
-        <v>0.7027478849135871</v>
+        <v>0.7423691870207686</v>
       </c>
       <c r="P2">
-        <v>0.7027478849135871</v>
+        <v>0.7423691870207685</v>
       </c>
       <c r="Q2">
-        <v>21166.24958461366</v>
+        <v>4611.90725978402</v>
       </c>
       <c r="R2">
-        <v>21166.24958461366</v>
+        <v>41507.16533805617</v>
       </c>
       <c r="S2">
-        <v>0.5832913173614593</v>
+        <v>0.08751197489312088</v>
       </c>
       <c r="T2">
-        <v>0.5832913173614593</v>
+        <v>0.08751197489312083</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>207.880566885611</v>
+        <v>33.74028533333333</v>
       </c>
       <c r="H3">
-        <v>207.880566885611</v>
+        <v>101.220856</v>
       </c>
       <c r="I3">
-        <v>0.8300150450587032</v>
+        <v>0.1178820139940326</v>
       </c>
       <c r="J3">
-        <v>0.8300150450587032</v>
+        <v>0.1178820139940326</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.643322410429334</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N3">
-        <v>0.643322410429334</v>
+        <v>2.685736</v>
       </c>
       <c r="O3">
-        <v>0.004440155779573066</v>
+        <v>0.004862170554817893</v>
       </c>
       <c r="P3">
-        <v>0.004440155779573066</v>
+        <v>0.004862170554817893</v>
       </c>
       <c r="Q3">
-        <v>133.7342273702677</v>
+        <v>30.20583299000178</v>
       </c>
       <c r="R3">
-        <v>133.7342273702677</v>
+        <v>271.852496910016</v>
       </c>
       <c r="S3">
-        <v>0.00368539609945</v>
+        <v>0.0005731624573844163</v>
       </c>
       <c r="T3">
-        <v>0.00368539609945</v>
+        <v>0.0005731624573844161</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>207.880566885611</v>
+        <v>33.74028533333333</v>
       </c>
       <c r="H4">
-        <v>207.880566885611</v>
+        <v>101.220856</v>
       </c>
       <c r="I4">
-        <v>0.8300150450587032</v>
+        <v>0.1178820139940326</v>
       </c>
       <c r="J4">
-        <v>0.8300150450587032</v>
+        <v>0.1178820139940326</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.176141651177</v>
+        <v>41.63761133333333</v>
       </c>
       <c r="N4">
-        <v>38.176141651177</v>
+        <v>124.912834</v>
       </c>
       <c r="O4">
-        <v>0.2634884363520759</v>
+        <v>0.2261381995079395</v>
       </c>
       <c r="P4">
-        <v>0.2634884363520759</v>
+        <v>0.2261381995079395</v>
       </c>
       <c r="Q4">
-        <v>7936.077967952059</v>
+        <v>1404.8648869851</v>
       </c>
       <c r="R4">
-        <v>7936.077967952059</v>
+        <v>12643.7839828659</v>
       </c>
       <c r="S4">
-        <v>0.2186993663712155</v>
+        <v>0.02665762639898026</v>
       </c>
       <c r="T4">
-        <v>0.2186993663712155</v>
+        <v>0.02665762639898026</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>207.880566885611</v>
+        <v>33.74028533333333</v>
       </c>
       <c r="H5">
-        <v>207.880566885611</v>
+        <v>101.220856</v>
       </c>
       <c r="I5">
-        <v>0.8300150450587032</v>
+        <v>0.1178820139940326</v>
       </c>
       <c r="J5">
-        <v>0.8300150450587032</v>
+        <v>0.1178820139940326</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.2486075728074</v>
+        <v>4.903320333333333</v>
       </c>
       <c r="N5">
-        <v>4.2486075728074</v>
+        <v>14.709961</v>
       </c>
       <c r="O5">
-        <v>0.02932352295476399</v>
+        <v>0.02663044291647413</v>
       </c>
       <c r="P5">
-        <v>0.02932352295476399</v>
+        <v>0.02663044291647413</v>
       </c>
       <c r="Q5">
-        <v>883.2029507097021</v>
+        <v>165.4394271274018</v>
       </c>
       <c r="R5">
-        <v>883.2029507097021</v>
+        <v>1488.954844146616</v>
       </c>
       <c r="S5">
-        <v>0.02433896522657835</v>
+        <v>0.003139250244547091</v>
       </c>
       <c r="T5">
-        <v>0.02433896522657835</v>
+        <v>0.003139250244547089</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.5734075612119</v>
+        <v>208.8859453333334</v>
       </c>
       <c r="H6">
-        <v>42.5734075612119</v>
+        <v>626.6578360000001</v>
       </c>
       <c r="I6">
-        <v>0.1699849549412969</v>
+        <v>0.7298069855566348</v>
       </c>
       <c r="J6">
-        <v>0.1699849549412969</v>
+        <v>0.7298069855566347</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.819279703334</v>
+        <v>136.6884486666667</v>
       </c>
       <c r="N6">
-        <v>101.819279703334</v>
+        <v>410.065346</v>
       </c>
       <c r="O6">
-        <v>0.7027478849135871</v>
+        <v>0.7423691870207686</v>
       </c>
       <c r="P6">
-        <v>0.7027478849135871</v>
+        <v>0.7423691870207685</v>
       </c>
       <c r="Q6">
-        <v>4334.793692399069</v>
+        <v>28552.29581588347</v>
       </c>
       <c r="R6">
-        <v>4334.793692399069</v>
+        <v>256970.6623429513</v>
       </c>
       <c r="S6">
-        <v>0.1194565675521278</v>
+        <v>0.5417862185497568</v>
       </c>
       <c r="T6">
-        <v>0.1194565675521278</v>
+        <v>0.5417862185497566</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.5734075612119</v>
+        <v>208.8859453333334</v>
       </c>
       <c r="H7">
-        <v>42.5734075612119</v>
+        <v>626.6578360000001</v>
       </c>
       <c r="I7">
-        <v>0.1699849549412969</v>
+        <v>0.7298069855566348</v>
       </c>
       <c r="J7">
-        <v>0.1699849549412969</v>
+        <v>0.7298069855566347</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.643322410429334</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N7">
-        <v>0.643322410429334</v>
+        <v>2.685736</v>
       </c>
       <c r="O7">
-        <v>0.004440155779573066</v>
+        <v>0.004862170554817893</v>
       </c>
       <c r="P7">
-        <v>0.004440155779573066</v>
+        <v>0.004862170554817893</v>
       </c>
       <c r="Q7">
-        <v>27.38842717246927</v>
+        <v>187.0041677585885</v>
       </c>
       <c r="R7">
-        <v>27.38842717246927</v>
+        <v>1683.037509827296</v>
       </c>
       <c r="S7">
-        <v>0.0007547596801230665</v>
+        <v>0.003548446035873877</v>
       </c>
       <c r="T7">
-        <v>0.0007547596801230665</v>
+        <v>0.003548446035873877</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.5734075612119</v>
+        <v>208.8859453333334</v>
       </c>
       <c r="H8">
-        <v>42.5734075612119</v>
+        <v>626.6578360000001</v>
       </c>
       <c r="I8">
-        <v>0.1699849549412969</v>
+        <v>0.7298069855566348</v>
       </c>
       <c r="J8">
-        <v>0.1699849549412969</v>
+        <v>0.7298069855566347</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>38.176141651177</v>
+        <v>41.63761133333333</v>
       </c>
       <c r="N8">
-        <v>38.176141651177</v>
+        <v>124.912834</v>
       </c>
       <c r="O8">
-        <v>0.2634884363520759</v>
+        <v>0.2261381995079395</v>
       </c>
       <c r="P8">
-        <v>0.2634884363520759</v>
+        <v>0.2261381995079395</v>
       </c>
       <c r="Q8">
-        <v>1625.288437630115</v>
+        <v>8697.511804785248</v>
       </c>
       <c r="R8">
-        <v>1625.288437630115</v>
+        <v>78277.60624306723</v>
       </c>
       <c r="S8">
-        <v>0.04478906998086038</v>
+        <v>0.1650372377020942</v>
       </c>
       <c r="T8">
-        <v>0.04478906998086038</v>
+        <v>0.1650372377020941</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>208.8859453333334</v>
+      </c>
+      <c r="H9">
+        <v>626.6578360000001</v>
+      </c>
+      <c r="I9">
+        <v>0.7298069855566348</v>
+      </c>
+      <c r="J9">
+        <v>0.7298069855566347</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.903320333333333</v>
+      </c>
+      <c r="N9">
+        <v>14.709961</v>
+      </c>
+      <c r="O9">
+        <v>0.02663044291647413</v>
+      </c>
+      <c r="P9">
+        <v>0.02663044291647413</v>
+      </c>
+      <c r="Q9">
+        <v>1024.234703100489</v>
+      </c>
+      <c r="R9">
+        <v>9218.112327904397</v>
+      </c>
+      <c r="S9">
+        <v>0.01943508326891002</v>
+      </c>
+      <c r="T9">
+        <v>0.01943508326891002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1370303333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.411091</v>
+      </c>
+      <c r="I10">
+        <v>0.0004787574115636887</v>
+      </c>
+      <c r="J10">
+        <v>0.0004787574115636886</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>136.6884486666667</v>
+      </c>
+      <c r="N10">
+        <v>410.065346</v>
+      </c>
+      <c r="O10">
+        <v>0.7423691870207686</v>
+      </c>
+      <c r="P10">
+        <v>0.7423691870207685</v>
+      </c>
+      <c r="Q10">
+        <v>18.73046368360955</v>
+      </c>
+      <c r="R10">
+        <v>168.574173152486</v>
+      </c>
+      <c r="S10">
+        <v>0.0003554147504027031</v>
+      </c>
+      <c r="T10">
+        <v>0.0003554147504027029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1370303333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.411091</v>
+      </c>
+      <c r="I11">
+        <v>0.0004787574115636887</v>
+      </c>
+      <c r="J11">
+        <v>0.0004787574115636886</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.8952453333333334</v>
+      </c>
+      <c r="N11">
+        <v>2.685736</v>
+      </c>
+      <c r="O11">
+        <v>0.004862170554817893</v>
+      </c>
+      <c r="P11">
+        <v>0.004862170554817893</v>
+      </c>
+      <c r="Q11">
+        <v>0.1226757664417778</v>
+      </c>
+      <c r="R11">
+        <v>1.104081897976</v>
+      </c>
+      <c r="S11">
+        <v>2.327800189405798E-06</v>
+      </c>
+      <c r="T11">
+        <v>2.327800189405798E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1370303333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.411091</v>
+      </c>
+      <c r="I12">
+        <v>0.0004787574115636887</v>
+      </c>
+      <c r="J12">
+        <v>0.0004787574115636886</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>41.63761133333333</v>
+      </c>
+      <c r="N12">
+        <v>124.912834</v>
+      </c>
+      <c r="O12">
+        <v>0.2261381995079395</v>
+      </c>
+      <c r="P12">
+        <v>0.2261381995079395</v>
+      </c>
+      <c r="Q12">
+        <v>5.705615760210445</v>
+      </c>
+      <c r="R12">
+        <v>51.350541841894</v>
+      </c>
+      <c r="S12">
+        <v>0.0001082653390520941</v>
+      </c>
+      <c r="T12">
+        <v>0.0001082653390520941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1370303333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.411091</v>
+      </c>
+      <c r="I13">
+        <v>0.0004787574115636887</v>
+      </c>
+      <c r="J13">
+        <v>0.0004787574115636886</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.903320333333333</v>
+      </c>
+      <c r="N13">
+        <v>14.709961</v>
+      </c>
+      <c r="O13">
+        <v>0.02663044291647413</v>
+      </c>
+      <c r="P13">
+        <v>0.02663044291647413</v>
+      </c>
+      <c r="Q13">
+        <v>0.6719036197167778</v>
+      </c>
+      <c r="R13">
+        <v>6.047132577450999</v>
+      </c>
+      <c r="S13">
+        <v>1.274952191948572E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.274952191948572E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>43.45754733333333</v>
+      </c>
+      <c r="H14">
+        <v>130.372642</v>
+      </c>
+      <c r="I14">
+        <v>0.1518322430377688</v>
+      </c>
+      <c r="J14">
+        <v>0.1518322430377688</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>136.6884486666667</v>
+      </c>
+      <c r="N14">
+        <v>410.065346</v>
+      </c>
+      <c r="O14">
+        <v>0.7423691870207686</v>
+      </c>
+      <c r="P14">
+        <v>0.7423691870207685</v>
+      </c>
+      <c r="Q14">
+        <v>5940.14472785157</v>
+      </c>
+      <c r="R14">
+        <v>53461.30255066412</v>
+      </c>
+      <c r="S14">
+        <v>0.1127155788274882</v>
+      </c>
+      <c r="T14">
+        <v>0.1127155788274882</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>42.5734075612119</v>
-      </c>
-      <c r="H9">
-        <v>42.5734075612119</v>
-      </c>
-      <c r="I9">
-        <v>0.1699849549412969</v>
-      </c>
-      <c r="J9">
-        <v>0.1699849549412969</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>4.2486075728074</v>
-      </c>
-      <c r="N9">
-        <v>4.2486075728074</v>
-      </c>
-      <c r="O9">
-        <v>0.02932352295476399</v>
-      </c>
-      <c r="P9">
-        <v>0.02932352295476399</v>
-      </c>
-      <c r="Q9">
-        <v>180.8777017647807</v>
-      </c>
-      <c r="R9">
-        <v>180.8777017647807</v>
-      </c>
-      <c r="S9">
-        <v>0.004984557728185641</v>
-      </c>
-      <c r="T9">
-        <v>0.004984557728185641</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>43.45754733333333</v>
+      </c>
+      <c r="H15">
+        <v>130.372642</v>
+      </c>
+      <c r="I15">
+        <v>0.1518322430377688</v>
+      </c>
+      <c r="J15">
+        <v>0.1518322430377688</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.8952453333333334</v>
+      </c>
+      <c r="N15">
+        <v>2.685736</v>
+      </c>
+      <c r="O15">
+        <v>0.004862170554817893</v>
+      </c>
+      <c r="P15">
+        <v>0.004862170554817893</v>
+      </c>
+      <c r="Q15">
+        <v>38.90516644827911</v>
+      </c>
+      <c r="R15">
+        <v>350.146498034512</v>
+      </c>
+      <c r="S15">
+        <v>0.0007382342613701938</v>
+      </c>
+      <c r="T15">
+        <v>0.0007382342613701935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>43.45754733333333</v>
+      </c>
+      <c r="H16">
+        <v>130.372642</v>
+      </c>
+      <c r="I16">
+        <v>0.1518322430377688</v>
+      </c>
+      <c r="J16">
+        <v>0.1518322430377688</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>41.63761133333333</v>
+      </c>
+      <c r="N16">
+        <v>124.912834</v>
+      </c>
+      <c r="O16">
+        <v>0.2261381995079395</v>
+      </c>
+      <c r="P16">
+        <v>0.2261381995079395</v>
+      </c>
+      <c r="Q16">
+        <v>1809.46846536527</v>
+      </c>
+      <c r="R16">
+        <v>16285.21618828743</v>
+      </c>
+      <c r="S16">
+        <v>0.03433507006781292</v>
+      </c>
+      <c r="T16">
+        <v>0.03433507006781292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>43.45754733333333</v>
+      </c>
+      <c r="H17">
+        <v>130.372642</v>
+      </c>
+      <c r="I17">
+        <v>0.1518322430377688</v>
+      </c>
+      <c r="J17">
+        <v>0.1518322430377688</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.903320333333333</v>
+      </c>
+      <c r="N17">
+        <v>14.709961</v>
+      </c>
+      <c r="O17">
+        <v>0.02663044291647413</v>
+      </c>
+      <c r="P17">
+        <v>0.02663044291647413</v>
+      </c>
+      <c r="Q17">
+        <v>213.0862754763291</v>
+      </c>
+      <c r="R17">
+        <v>1917.776479286962</v>
+      </c>
+      <c r="S17">
+        <v>0.00404335988109753</v>
+      </c>
+      <c r="T17">
+        <v>0.004043359881097529</v>
       </c>
     </row>
   </sheetData>
